--- a/data/trans_dic/POLIPATOLOGIA_5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04705597004487182</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02487378495305972</v>
+        <v>0.02487378495305973</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06190062091666606</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01267067364567803</v>
+        <v>0.01269871275406774</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02507922786550337</v>
+        <v>0.02328570109562461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02716950771555616</v>
+        <v>0.02767993241609461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01324370625931632</v>
+        <v>0.01247957215928859</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03506172745368046</v>
+        <v>0.03625382686864711</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06074721560756284</v>
+        <v>0.05905722100602321</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09652820117459099</v>
+        <v>0.09601748768288622</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04319833956698583</v>
+        <v>0.04252516223242169</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02795976646151686</v>
+        <v>0.02888807214629409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04674087605264603</v>
+        <v>0.0487730176276886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.068791504744436</v>
+        <v>0.06773686403237034</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03117433387191123</v>
+        <v>0.03151396598572204</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0480983769857234</v>
+        <v>0.04736929853870964</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07376703459838808</v>
+        <v>0.07483278305242602</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07852305187146183</v>
+        <v>0.07820749116583121</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04750083529346118</v>
+        <v>0.04361037409166821</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0964923927312714</v>
+        <v>0.09651686901505123</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1353991568597714</v>
+        <v>0.1336982722296995</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1805962185100496</v>
+        <v>0.1835804228592136</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0813144375251708</v>
+        <v>0.07955467026388563</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06415942946600933</v>
+        <v>0.06274925765950851</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09218540631368299</v>
+        <v>0.09132306441877786</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1172846651073604</v>
+        <v>0.1156657866341612</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05579553385623192</v>
+        <v>0.05672118230308833</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01681022487513216</v>
+        <v>0.01704698680158516</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03130353541935794</v>
+        <v>0.03108773819696482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007296139664822125</v>
+        <v>0.006886206430333792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03942972674884896</v>
+        <v>0.04109634596271487</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09161766054853393</v>
+        <v>0.09178584567501348</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06934974132729606</v>
+        <v>0.06928339026733304</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03832951587048344</v>
+        <v>0.03761089182666981</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1124724250428181</v>
+        <v>0.1125442197791065</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05724568504344017</v>
+        <v>0.05785998932422519</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0570941923418431</v>
+        <v>0.05659697453485824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02510303920715628</v>
+        <v>0.0266738274404117</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08265459681227229</v>
+        <v>0.08375999430084183</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0502037323991184</v>
+        <v>0.05078950915490397</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0761689420014358</v>
+        <v>0.07689851314257255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03030344036251529</v>
+        <v>0.02862786094896935</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08262043075060065</v>
+        <v>0.08505046877484698</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1494104471748456</v>
+        <v>0.1481221556155175</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1246618427170078</v>
+        <v>0.1253263894036666</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08157912918189651</v>
+        <v>0.08190016294544895</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1609825757002591</v>
+        <v>0.1615524689865017</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09000347216863219</v>
+        <v>0.0924668677571072</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09116756434928686</v>
+        <v>0.0908690620872778</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05050757868705411</v>
+        <v>0.05139729765228129</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1169926593369258</v>
+        <v>0.1154544343856021</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002968152015290071</v>
+        <v>0.002963218543839473</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01238100753470406</v>
+        <v>0.01249602132528113</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006852424532641138</v>
+        <v>0.005366218442593859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09499454561048915</v>
+        <v>0.09843501403715699</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01225039442952226</v>
+        <v>0.0108866381264643</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05767628149911457</v>
+        <v>0.05465654529120355</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03867037433213192</v>
+        <v>0.03816714207034209</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1399945793750193</v>
+        <v>0.1419614881061731</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01014912588040376</v>
+        <v>0.009663933295409998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04057447346714713</v>
+        <v>0.03953085370342204</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0253123347422337</v>
+        <v>0.02537281453699961</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1281892723939159</v>
+        <v>0.1273461734817941</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02927746605704718</v>
+        <v>0.02918976994872829</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05735083318008873</v>
+        <v>0.05605569948336767</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03292845163821333</v>
+        <v>0.03048811437861355</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1593792290196094</v>
+        <v>0.1616314259202652</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04466938218614604</v>
+        <v>0.04565563913807753</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1202438168371245</v>
+        <v>0.1181086676709912</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1002136238227446</v>
+        <v>0.09996752470432473</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.201601348954069</v>
+        <v>0.2027676971217734</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03048204683120017</v>
+        <v>0.03003276397660223</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07891914526948864</v>
+        <v>0.07760864964325263</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05665830118911851</v>
+        <v>0.057000730948778</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1730347707415694</v>
+        <v>0.1710825579800681</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01212745080594288</v>
+        <v>0.01207667402063166</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02530522509868714</v>
+        <v>0.02300116717986463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03306406597064479</v>
+        <v>0.0324344885769727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06944126236768351</v>
+        <v>0.06960551996225212</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02434796118707133</v>
+        <v>0.02579510090289713</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1090560069276942</v>
+        <v>0.1112221567490091</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1042628083454344</v>
+        <v>0.101100444599769</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1314153860378774</v>
+        <v>0.1340075793525296</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02232024288392409</v>
+        <v>0.02208853122878095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07227925418623868</v>
+        <v>0.07228667523493994</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07348926448861282</v>
+        <v>0.07373519032170517</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1090591221442803</v>
+        <v>0.1079601195285865</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04654047585892491</v>
+        <v>0.04885327275546478</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06947526400632101</v>
+        <v>0.0664528323306426</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07856070037454446</v>
+        <v>0.07899324468377787</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1343254215576476</v>
+        <v>0.1284525797330101</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06680412430575379</v>
+        <v>0.06823862640259172</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1776545280407237</v>
+        <v>0.1792806961576292</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1768341648208448</v>
+        <v>0.1742036187226482</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.184543198368784</v>
+        <v>0.1882031415484177</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05005010995956519</v>
+        <v>0.04886134077875039</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1152815425301968</v>
+        <v>0.1151044335694279</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1193723482470164</v>
+        <v>0.1196503961945544</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1493749433273805</v>
+        <v>0.1499887170147792</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04500023486807675</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08820381237249925</v>
+        <v>0.08820381237249922</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05030735868397412</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008687328728256493</v>
+        <v>0.008670284620189969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0573025736363736</v>
+        <v>0.05258629844219902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02221860500873186</v>
+        <v>0.02275156035020028</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06191121292948013</v>
+        <v>0.05971683975226812</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02034314119023709</v>
+        <v>0.02489078015256576</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1261658092624248</v>
+        <v>0.1256477366815261</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06621897156457471</v>
+        <v>0.06855077117607124</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1416357645744087</v>
+        <v>0.1436816236339784</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02051166126817819</v>
+        <v>0.01952535480133371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09840954995987546</v>
+        <v>0.09920773594034968</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0527820417629372</v>
+        <v>0.05213268041379886</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1113443387829314</v>
+        <v>0.1108399208311676</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05363609285511041</v>
+        <v>0.05249713976324771</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1390065611513822</v>
+        <v>0.1349737951559508</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07596987213749329</v>
+        <v>0.07871534412834162</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1233155953051026</v>
+        <v>0.1201039388217207</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08891951945597676</v>
+        <v>0.09626022775104244</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2329016162651256</v>
+        <v>0.2320147903537598</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1505616885060418</v>
+        <v>0.1505966410465925</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2078195997029336</v>
+        <v>0.2103377654388153</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06047909667714886</v>
+        <v>0.06309556765861357</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.165341621069071</v>
+        <v>0.1673294776079177</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1044396436541601</v>
+        <v>0.1022941837010539</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.155068407474085</v>
+        <v>0.1537780285879069</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.06625776427572606</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2791335568027491</v>
+        <v>0.2791335568027489</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02196997878625832</v>
@@ -1389,37 +1389,37 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.02597598259392321</v>
+        <v>0.02640039873525447</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01947550779632988</v>
+        <v>0.01853421768234041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1343317690712643</v>
+        <v>0.1360721310413355</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02309670438107408</v>
+        <v>0.02218262511459382</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04054315895841191</v>
+        <v>0.0407249785437326</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03971244090840625</v>
+        <v>0.03975876182867358</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2393782262675737</v>
+        <v>0.2423201699264507</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0117712732864777</v>
+        <v>0.01004886431399137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04076678004638498</v>
+        <v>0.04057660537115672</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03462685811533431</v>
+        <v>0.0358440993757181</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1960443103318922</v>
+        <v>0.19589640352581</v>
       </c>
     </row>
     <row r="21">
@@ -1431,37 +1431,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.07873832029446999</v>
+        <v>0.08205341586242342</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06594442810017381</v>
+        <v>0.06668007618054288</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2062224645478423</v>
+        <v>0.2085287283311321</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07446931207770316</v>
+        <v>0.0736089149025546</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1015097499261742</v>
+        <v>0.09860664487741908</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1059591530119399</v>
+        <v>0.106108058903</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3202533518921126</v>
+        <v>0.3209241648696955</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03616433237539472</v>
+        <v>0.03624446300768632</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07987612169376254</v>
+        <v>0.07981002616844909</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07380965550600542</v>
+        <v>0.07465601336531472</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2491635460153766</v>
+        <v>0.2516618276635476</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02065808079434225</v>
+        <v>0.01996683693721137</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01946358972905699</v>
+        <v>0.0197042993039766</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02700048905138652</v>
+        <v>0.02774434806757767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07501697702976377</v>
+        <v>0.07275898006874369</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04057010189328666</v>
+        <v>0.04096309240798299</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07741260510160046</v>
+        <v>0.07519355511281307</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08407515655415629</v>
+        <v>0.0862506254320619</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2018559181662643</v>
+        <v>0.2014258824752851</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03531614266062712</v>
+        <v>0.03481872531620581</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05280841748165604</v>
+        <v>0.05277715511022615</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06122392792159432</v>
+        <v>0.06177708578051665</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1454377250593896</v>
+        <v>0.1462981506461138</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0487638474502133</v>
+        <v>0.04766379220144821</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04841945502748986</v>
+        <v>0.04775672582633125</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0600083491899893</v>
+        <v>0.06039700974271696</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1187605067345118</v>
+        <v>0.117215773846467</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07730036001223517</v>
+        <v>0.07845940712736928</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1259199255206737</v>
+        <v>0.12420228194457</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1326285313268195</v>
+        <v>0.1337698851453279</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.256084403589419</v>
+        <v>0.2558426564507274</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0579790737437171</v>
+        <v>0.05830898420303218</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0806998356126537</v>
+        <v>0.08188714598297868</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09162985331088271</v>
+        <v>0.09200886404232064</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1792707578357955</v>
+        <v>0.1797604896228945</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05224425473096645</v>
+        <v>0.0538849460224408</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009728542399917092</v>
+        <v>0.009979917083617852</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02340475621803426</v>
+        <v>0.02255682029867005</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.04866932622583806</v>
+        <v>0.04998737485568453</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0680961740862101</v>
+        <v>0.0695397424860453</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06308596676102533</v>
+        <v>0.06286838475785235</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0848594156062142</v>
+        <v>0.08805930275688101</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1069728080954422</v>
+        <v>0.1064825754963904</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.06656123525061478</v>
+        <v>0.06690352834142568</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03979334168754779</v>
+        <v>0.03931030363547435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06008245275867032</v>
+        <v>0.05933906556506188</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0828975476055319</v>
+        <v>0.08316963000609914</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0892930748976789</v>
+        <v>0.09235840962728604</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02943554193212048</v>
+        <v>0.02926562427873901</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05039258976986214</v>
+        <v>0.04914001496913335</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07885272114544399</v>
+        <v>0.08078543446085125</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1099877954299313</v>
+        <v>0.1126450341851775</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1014512585005342</v>
+        <v>0.1017444604717701</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1362457530157169</v>
+        <v>0.1351794705487463</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1430609781001588</v>
+        <v>0.1431580239486716</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.09379130902686059</v>
+        <v>0.09371831460536047</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06255675672004134</v>
+        <v>0.06184564820130198</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.08748725234143824</v>
+        <v>0.08659343739274145</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1073832316519937</v>
+        <v>0.1084979631837008</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>0.03520085888637804</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.08395997600994848</v>
+        <v>0.08395997600994846</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.06704220913826139</v>
@@ -1769,7 +1769,7 @@
         <v>0.0979509047708593</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.1638784621599326</v>
+        <v>0.1638784621599325</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.05084127958350297</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02831684981217865</v>
+        <v>0.02857506075762491</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03149872547148206</v>
+        <v>0.0316582666591371</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02931786472669364</v>
+        <v>0.0296709665606585</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07545796431254684</v>
+        <v>0.07516693162555334</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.05774682142247951</v>
+        <v>0.05882745501679269</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08918912324439045</v>
+        <v>0.08872508609844039</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.08741900864611142</v>
+        <v>0.08853682970256956</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.154330419170001</v>
+        <v>0.154502949487301</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.04555235749649706</v>
+        <v>0.04568769743438784</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.06278299349435058</v>
+        <v>0.0630127691804012</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0611714150751944</v>
+        <v>0.06112337699167627</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1185088046878754</v>
+        <v>0.1188536030113951</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0409598624463102</v>
+        <v>0.04011527088171515</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04481191429653711</v>
+        <v>0.04533108741384586</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04195810045325855</v>
+        <v>0.04222104688561251</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.09340205932408133</v>
+        <v>0.09256652663953151</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.07628596346720221</v>
+        <v>0.07666604801319707</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1092212705839782</v>
+        <v>0.1097446696746234</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1087175767045439</v>
+        <v>0.1097496566125327</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1733462312597545</v>
+        <v>0.1737074110250952</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.05653245456705201</v>
+        <v>0.05610308618877982</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.07506897170087763</v>
+        <v>0.07597848573440485</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.0739883429252135</v>
+        <v>0.0738867472995807</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1314269415704956</v>
+        <v>0.1318895371300452</v>
       </c>
     </row>
     <row r="31">
@@ -2144,40 +2144,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3459</v>
+        <v>3467</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7392</v>
+        <v>6863</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7981</v>
+        <v>8131</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4223</v>
+        <v>3979</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9145</v>
+        <v>9456</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17449</v>
+        <v>16964</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27868</v>
+        <v>27721</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13653</v>
+        <v>13441</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14926</v>
+        <v>15422</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>27202</v>
+        <v>28385</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>40069</v>
+        <v>39454</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19793</v>
+        <v>20008</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13131</v>
+        <v>12932</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21742</v>
+        <v>22056</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23067</v>
+        <v>22974</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15145</v>
+        <v>13905</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25169</v>
+        <v>25175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>38893</v>
+        <v>38404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52139</v>
+        <v>53000</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25700</v>
+        <v>25144</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>34251</v>
+        <v>33499</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>53650</v>
+        <v>53148</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>68314</v>
+        <v>67371</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>35425</v>
+        <v>36013</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8289</v>
+        <v>8405</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15825</v>
+        <v>15716</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3667</v>
+        <v>3461</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20923</v>
+        <v>21808</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46171</v>
+        <v>46255</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36323</v>
+        <v>36288</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>20050</v>
+        <v>19674</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>61466</v>
+        <v>61505</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>57075</v>
+        <v>57688</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>58767</v>
+        <v>58255</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25747</v>
+        <v>27358</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>89031</v>
+        <v>90221</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24754</v>
+        <v>25043</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38505</v>
+        <v>38874</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>15230</v>
+        <v>14388</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43842</v>
+        <v>45132</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>75295</v>
+        <v>74646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>65294</v>
+        <v>65642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>42673</v>
+        <v>42841</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>87976</v>
+        <v>88287</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>89736</v>
+        <v>92192</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>93838</v>
+        <v>93531</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>51804</v>
+        <v>52716</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>126018</v>
+        <v>124361</v>
       </c>
     </row>
     <row r="12">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4012</v>
+        <v>4049</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2183</v>
+        <v>1709</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30018</v>
+        <v>31105</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4109</v>
+        <v>3652</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19669</v>
+        <v>18639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13005</v>
+        <v>12836</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>49891</v>
+        <v>50592</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6640</v>
+        <v>6323</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>26985</v>
+        <v>26291</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16576</v>
+        <v>16616</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>86191</v>
+        <v>85624</v>
       </c>
     </row>
     <row r="15">
@@ -2548,40 +2548,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9335</v>
+        <v>9307</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18584</v>
+        <v>18165</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10490</v>
+        <v>9712</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50363</v>
+        <v>51074</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14983</v>
+        <v>15313</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41006</v>
+        <v>40277</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33703</v>
+        <v>33620</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>71847</v>
+        <v>72263</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19943</v>
+        <v>19649</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>52486</v>
+        <v>51615</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>37104</v>
+        <v>37328</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>116344</v>
+        <v>115032</v>
       </c>
     </row>
     <row r="16">
@@ -2684,40 +2684,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4350</v>
+        <v>4332</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9464</v>
+        <v>8602</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12233</v>
+        <v>12000</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25912</v>
+        <v>25973</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9044</v>
+        <v>9582</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>42417</v>
+        <v>43260</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>40379</v>
+        <v>39154</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>55452</v>
+        <v>56546</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16297</v>
+        <v>16127</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>55144</v>
+        <v>55150</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>55650</v>
+        <v>55836</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>86714</v>
+        <v>85840</v>
       </c>
     </row>
     <row r="19">
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16693</v>
+        <v>17522</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>25982</v>
+        <v>24852</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29065</v>
+        <v>29225</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>50123</v>
+        <v>47931</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24815</v>
+        <v>25348</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>69099</v>
+        <v>69731</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68485</v>
+        <v>67466</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>77870</v>
+        <v>79414</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36543</v>
+        <v>35675</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>87952</v>
+        <v>87817</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>90394</v>
+        <v>90605</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>118769</v>
+        <v>119257</v>
       </c>
     </row>
     <row r="20">
@@ -2864,40 +2864,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12184</v>
+        <v>11181</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4693</v>
+        <v>4806</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12733</v>
+        <v>12282</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4225</v>
+        <v>5169</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>27705</v>
+        <v>27591</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>14475</v>
+        <v>14984</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>32423</v>
+        <v>32891</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8430</v>
+        <v>8024</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>42533</v>
+        <v>42878</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>22686</v>
+        <v>22407</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>48388</v>
+        <v>48169</v>
       </c>
     </row>
     <row r="23">
@@ -2908,40 +2908,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10905</v>
+        <v>10673</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29555</v>
+        <v>28698</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16046</v>
+        <v>16626</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25362</v>
+        <v>24701</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18466</v>
+        <v>19990</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>51143</v>
+        <v>50948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>32911</v>
+        <v>32918</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>47574</v>
+        <v>48150</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>24855</v>
+        <v>25931</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>71462</v>
+        <v>72321</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>44889</v>
+        <v>43967</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>67390</v>
+        <v>66829</v>
       </c>
     </row>
     <row r="24">
@@ -3045,37 +3045,37 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>7117</v>
+        <v>7233</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5124</v>
+        <v>4877</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>36365</v>
+        <v>36836</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6424</v>
+        <v>6170</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>11353</v>
+        <v>11404</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>10846</v>
+        <v>10859</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>63136</v>
+        <v>63912</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6462</v>
+        <v>5516</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>22585</v>
+        <v>22480</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>18568</v>
+        <v>19221</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>104777</v>
+        <v>104698</v>
       </c>
     </row>
     <row r="27">
@@ -3087,37 +3087,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>21573</v>
+        <v>22481</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17351</v>
+        <v>17545</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>55826</v>
+        <v>56450</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20713</v>
+        <v>20474</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>28426</v>
+        <v>27613</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>28939</v>
+        <v>28980</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>84467</v>
+        <v>84644</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>19853</v>
+        <v>19897</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>44252</v>
+        <v>44216</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>39580</v>
+        <v>40033</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>133167</v>
+        <v>134502</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>12705</v>
+        <v>12280</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12900</v>
+        <v>13060</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17727</v>
+        <v>18216</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>53989</v>
+        <v>52364</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>25893</v>
+        <v>26143</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>53713</v>
+        <v>52173</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>58121</v>
+        <v>59625</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>155844</v>
+        <v>155512</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>44260</v>
+        <v>43636</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>71642</v>
+        <v>71600</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>82521</v>
+        <v>83266</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>216956</v>
+        <v>218239</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>29991</v>
+        <v>29315</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>32092</v>
+        <v>31653</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>39399</v>
+        <v>39654</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>85470</v>
+        <v>84359</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>49335</v>
+        <v>50074</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>87370</v>
+        <v>86178</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>91685</v>
+        <v>92474</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>197712</v>
+        <v>197525</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>72662</v>
+        <v>73076</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>109481</v>
+        <v>111091</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>123503</v>
+        <v>124014</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>267426</v>
+        <v>268157</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>38859</v>
+        <v>40079</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>7579</v>
+        <v>7775</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>18223</v>
+        <v>17562</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>38842</v>
+        <v>39894</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>53354</v>
+        <v>54485</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>51974</v>
+        <v>51794</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>70108</v>
+        <v>72752</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>88930</v>
+        <v>88522</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>101659</v>
+        <v>102182</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>63787</v>
+        <v>63012</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>96417</v>
+        <v>95224</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>135074</v>
+        <v>135517</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>66416</v>
+        <v>68696</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>22933</v>
+        <v>22801</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>39235</v>
+        <v>38260</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>62930</v>
+        <v>64473</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>86177</v>
+        <v>88259</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>83581</v>
+        <v>83822</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>112562</v>
+        <v>111681</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>118931</v>
+        <v>119012</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>143248</v>
+        <v>143137</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>100275</v>
+        <v>99136</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>140395</v>
+        <v>138961</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>174971</v>
+        <v>176787</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>92781</v>
+        <v>93627</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>107939</v>
+        <v>108486</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>99515</v>
+        <v>100714</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>266575</v>
+        <v>265547</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>195138</v>
+        <v>198790</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>317362</v>
+        <v>315711</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>309860</v>
+        <v>313823</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>576726</v>
+        <v>577370</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>303185</v>
+        <v>304085</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>438545</v>
+        <v>440150</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>424462</v>
+        <v>424129</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>861525</v>
+        <v>864032</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>134207</v>
+        <v>131439</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>153561</v>
+        <v>155340</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>142420</v>
+        <v>143313</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>329967</v>
+        <v>327016</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>257785</v>
+        <v>259070</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>388643</v>
+        <v>390505</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>385354</v>
+        <v>389012</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>647787</v>
+        <v>649137</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>376265</v>
+        <v>373408</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>524363</v>
+        <v>530716</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>513397</v>
+        <v>512692</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>955437</v>
+        <v>958799</v>
       </c>
     </row>
     <row r="40">
